--- a/documents/TESTING DOCUMENT.xlsx
+++ b/documents/TESTING DOCUMENT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarus\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsr30\java-projects\codefury\bug-tracking-system\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C36BAD9-72C3-463B-AD14-0D05F99348FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A16C194-5004-4A67-8D06-51BACAB15F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -912,7 +912,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1067,8 +1067,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,6 +1125,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -1571,13 +1595,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1826,15 +1852,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1850,24 +1867,119 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1892,112 +2004,82 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="9" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="9" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="9" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="9" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="8" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Functional Test Case v1.0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -2017,7 +2099,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Data"/>
@@ -4311,9 +4393,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4351,9 +4433,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4386,9 +4468,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4421,9 +4520,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4603,20 +4719,20 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.46484375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.86328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.46484375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.73046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="22.15">
+    <row r="2" spans="1:8" ht="22.5">
       <c r="A2" s="25"/>
       <c r="B2" s="26" t="s">
         <v>3</v>
@@ -4653,7 +4769,7 @@
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="13.9" thickBot="1">
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5" s="25"/>
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
@@ -4667,11 +4783,11 @@
       <c r="B6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="109"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
@@ -4680,11 +4796,11 @@
       <c r="B7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="109"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
@@ -4734,7 +4850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="34" customFormat="1" ht="25.5">
+    <row r="12" spans="1:8" s="34" customFormat="1">
       <c r="B12" s="36">
         <v>39293</v>
       </c>
@@ -4753,8 +4869,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="34" customFormat="1" ht="25.5">
-      <c r="B13" s="104">
+    <row r="13" spans="1:8" s="34" customFormat="1">
+      <c r="B13" s="101">
         <v>39295</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -4767,14 +4883,14 @@
       <c r="F13" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="100" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="87" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="35" customFormat="1" ht="25.5">
+    <row r="14" spans="1:8" s="35" customFormat="1" ht="12.75">
       <c r="B14" s="36">
         <v>39311</v>
       </c>
@@ -4788,7 +4904,7 @@
       <c r="F14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="100" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="87" t="s">
@@ -4896,7 +5012,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4909,17 +5025,17 @@
   </sheetPr>
   <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="26.265625" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.1328125" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" customWidth="1"/>
-    <col min="7" max="7" width="18.46484375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="40.375" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="97"/>
     <col min="9" max="9" width="18" style="95" customWidth="1"/>
   </cols>
@@ -4928,25 +5044,25 @@
       <c r="A1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="105"/>
+      <c r="H1" s="102"/>
       <c r="I1" s="6"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="105"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
@@ -4954,46 +5070,46 @@
       <c r="A3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="77" customFormat="1" ht="12.75">
       <c r="A5" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="75"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
       <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5014,8 +5130,8 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -5036,210 +5152,210 @@
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="126"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" s="79" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="113" t="s">
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="137" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="78"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="113"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" s="80" customFormat="1" ht="15">
-      <c r="A11" s="135"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="136"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="142"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="153"/>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="25.5">
-      <c r="A13" s="149" t="s">
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+    </row>
+    <row r="13" spans="1:10" s="175" customFormat="1" ht="30">
+      <c r="A13" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="176" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="177" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149" t="s">
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="149"/>
-    </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="25.5">
-      <c r="A14" s="149" t="s">
+      <c r="I13" s="176"/>
+    </row>
+    <row r="14" spans="1:10" s="175" customFormat="1" ht="30">
+      <c r="A14" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149" t="s">
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="149"/>
-    </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="25.5">
-      <c r="A15" s="149" t="s">
+      <c r="I14" s="176"/>
+    </row>
+    <row r="15" spans="1:10" s="175" customFormat="1" ht="30">
+      <c r="A15" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="177" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149" t="s">
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="149"/>
-    </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="25.5">
-      <c r="A16" s="149" t="s">
+      <c r="I15" s="176"/>
+    </row>
+    <row r="16" spans="1:10" s="175" customFormat="1" ht="30">
+      <c r="A16" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="176" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="176" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="152" t="s">
+      <c r="D16" s="177" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149" t="s">
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="149"/>
+      <c r="I16" s="176"/>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="25.5">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="111" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149" t="s">
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="149"/>
+      <c r="I17" s="110"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="12.75">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="111" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149" t="s">
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="149"/>
+      <c r="I18" s="110"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="110" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="93" t="s">
@@ -5248,29 +5364,29 @@
       <c r="C19" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
       <c r="G19" s="82"/>
-      <c r="H19" s="149" t="s">
+      <c r="H19" s="110" t="s">
         <v>33</v>
       </c>
       <c r="I19" s="81"/>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="153"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A21" s="84" t="s">
@@ -5282,11 +5398,11 @@
       <c r="C21" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
       <c r="G21" s="82"/>
       <c r="H21" s="83" t="s">
         <v>33</v>
@@ -5303,18 +5419,18 @@
       <c r="C22" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="141" t="s">
+      <c r="D22" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
       <c r="G22" s="82"/>
       <c r="H22" s="83" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="81"/>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="25.5" outlineLevel="1">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="12.75" outlineLevel="1">
       <c r="A23" s="84" t="s">
         <v>156</v>
       </c>
@@ -5324,11 +5440,11 @@
       <c r="C23" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
       <c r="G23" s="82"/>
       <c r="H23" s="83" t="s">
         <v>33</v>
@@ -5345,11 +5461,11 @@
       <c r="C24" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
       <c r="G24" s="82"/>
       <c r="H24" s="83" t="s">
         <v>33</v>
@@ -5360,98 +5476,98 @@
       <c r="A25" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="138" t="s">
+      <c r="C25" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="143" t="s">
+      <c r="D25" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="107"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="157"/>
+      <c r="I25" s="115"/>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A26" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="138" t="s">
+      <c r="C26" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="143" t="s">
+      <c r="D26" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="107"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="104"/>
       <c r="H26" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="139"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="12.75" outlineLevel="1">
       <c r="A27" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="143" t="s">
+      <c r="D27" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="107"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="104"/>
       <c r="H27" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="139"/>
+      <c r="I27" s="107"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A28" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="143" t="s">
+      <c r="D28" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="107"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="104"/>
       <c r="H28" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="139"/>
+      <c r="I28" s="107"/>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="153"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="121"/>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A30" s="84" t="s">
@@ -5463,11 +5579,11 @@
       <c r="C30" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="141" t="s">
+      <c r="D30" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
       <c r="G30" s="82"/>
       <c r="H30" s="83" t="s">
         <v>33</v>
@@ -5484,11 +5600,11 @@
       <c r="C31" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="141" t="s">
+      <c r="D31" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
       <c r="G31" s="82"/>
       <c r="H31" s="83" t="s">
         <v>33</v>
@@ -5505,11 +5621,11 @@
       <c r="C32" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
       <c r="G32" s="82"/>
       <c r="H32" s="83" t="s">
         <v>33</v>
@@ -5520,17 +5636,17 @@
       <c r="A33" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="145" t="s">
+      <c r="B33" s="109" t="s">
         <v>81</v>
       </c>
       <c r="C33" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="146" t="s">
+      <c r="D33" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
       <c r="G33" s="82"/>
       <c r="H33" s="83" t="s">
         <v>33</v>
@@ -5547,11 +5663,11 @@
       <c r="C34" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="146" t="s">
+      <c r="D34" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
       <c r="G34" s="82"/>
       <c r="H34" s="83" t="s">
         <v>33</v>
@@ -5568,11 +5684,11 @@
       <c r="C35" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="146" t="s">
+      <c r="D35" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
       <c r="G35" s="82"/>
       <c r="H35" s="83" t="s">
         <v>33</v>
@@ -5589,11 +5705,11 @@
       <c r="C36" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="146" t="s">
+      <c r="D36" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
       <c r="G36" s="82"/>
       <c r="H36" s="83" t="s">
         <v>33</v>
@@ -5610,11 +5726,11 @@
       <c r="C37" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="146" t="s">
+      <c r="D37" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
       <c r="G37" s="82"/>
       <c r="H37" s="83" t="s">
         <v>33</v>
@@ -5631,11 +5747,11 @@
       <c r="C38" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="146" t="s">
+      <c r="D38" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
       <c r="G38" s="82"/>
       <c r="H38" s="83" t="s">
         <v>33</v>
@@ -5643,380 +5759,380 @@
       <c r="I38" s="81"/>
     </row>
     <row r="39" spans="1:13" s="4" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="153"/>
-    </row>
-    <row r="40" spans="1:13" s="89" customFormat="1" ht="105.75" customHeight="1" outlineLevel="1">
-      <c r="A40" s="84" t="s">
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="121"/>
+    </row>
+    <row r="40" spans="1:13" s="168" customFormat="1" ht="105.75" customHeight="1" outlineLevel="1">
+      <c r="A40" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="H40" s="102" t="s">
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="H40" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="90"/>
-    </row>
-    <row r="41" spans="1:13" s="89" customFormat="1" ht="78.400000000000006" customHeight="1" outlineLevel="1">
-      <c r="A41" s="84" t="s">
+      <c r="I40" s="169"/>
+    </row>
+    <row r="41" spans="1:13" s="168" customFormat="1" ht="78.400000000000006" customHeight="1" outlineLevel="1">
+      <c r="A41" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="D41" s="166" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="H41" s="102" t="s">
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
+      <c r="H41" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="90"/>
-    </row>
-    <row r="42" spans="1:13" s="89" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A42" s="84" t="s">
+      <c r="I41" s="169"/>
+    </row>
+    <row r="42" spans="1:13" s="159" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A42" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="110" t="s">
+      <c r="D42" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="H42" s="102" t="s">
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="H42" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="I42" s="101"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-    </row>
-    <row r="43" spans="1:13" s="89" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A43" s="84" t="s">
+      <c r="I42" s="161"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="162"/>
+    </row>
+    <row r="43" spans="1:13" s="168" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A43" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="147" t="s">
+      <c r="D43" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="148"/>
-      <c r="F43" s="148"/>
-      <c r="H43" s="102" t="s">
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
+      <c r="H43" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="I43" s="101"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-    </row>
-    <row r="44" spans="1:13" s="89" customFormat="1" ht="87" customHeight="1" outlineLevel="1">
-      <c r="A44" s="84" t="s">
+      <c r="I43" s="172"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="173"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="173"/>
+    </row>
+    <row r="44" spans="1:13" s="168" customFormat="1" ht="87" customHeight="1" outlineLevel="1">
+      <c r="A44" s="163" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="88" t="s">
+      <c r="C44" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="147" t="s">
+      <c r="D44" s="170" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="H44" s="102" t="s">
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="H44" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="101"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-    </row>
-    <row r="45" spans="1:13" s="89" customFormat="1" ht="80.650000000000006" customHeight="1" outlineLevel="1">
-      <c r="A45" s="84" t="s">
+      <c r="I44" s="172"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="173"/>
+      <c r="L44" s="173"/>
+      <c r="M44" s="173"/>
+    </row>
+    <row r="45" spans="1:13" s="168" customFormat="1" ht="80.650000000000006" customHeight="1" outlineLevel="1">
+      <c r="A45" s="163" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="C45" s="165" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="147" t="s">
+      <c r="D45" s="170" t="s">
         <v>121</v>
       </c>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="H45" s="102" t="s">
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="H45" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="I45" s="101"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-    </row>
-    <row r="46" spans="1:13" s="89" customFormat="1" ht="102" customHeight="1" outlineLevel="1">
-      <c r="A46" s="84" t="s">
+      <c r="I45" s="172"/>
+      <c r="J45" s="173"/>
+      <c r="K45" s="173"/>
+      <c r="L45" s="173"/>
+      <c r="M45" s="173"/>
+    </row>
+    <row r="46" spans="1:13" s="168" customFormat="1" ht="102" customHeight="1" outlineLevel="1">
+      <c r="A46" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="88" t="s">
+      <c r="C46" s="165" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="110" t="s">
+      <c r="D46" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="H46" s="102" t="s">
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="H46" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="90"/>
+      <c r="I46" s="169"/>
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A47" s="122" t="s">
+      <c r="A47" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="123"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="153"/>
-    </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
-      <c r="A48" s="84" t="s">
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="121"/>
+    </row>
+    <row r="48" spans="1:13" s="175" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+      <c r="A48" s="163" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="94" t="s">
+      <c r="B48" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="88" t="s">
+      <c r="C48" s="165" t="s">
         <v>174</v>
       </c>
-      <c r="D48" s="110" t="s">
+      <c r="D48" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="96" t="s">
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="I48" s="90"/>
-    </row>
-    <row r="49" spans="1:9" s="89" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
-      <c r="A49" s="84" t="s">
+      <c r="I48" s="169"/>
+    </row>
+    <row r="49" spans="1:9" s="168" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
+      <c r="A49" s="163" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="94" t="s">
+      <c r="B49" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="88" t="s">
+      <c r="C49" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="166" t="s">
         <v>177</v>
       </c>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="H49" s="96" t="s">
+      <c r="E49" s="167"/>
+      <c r="F49" s="167"/>
+      <c r="H49" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="I49" s="90"/>
-    </row>
-    <row r="50" spans="1:9" s="89" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A50" s="84" t="s">
+      <c r="I49" s="169"/>
+    </row>
+    <row r="50" spans="1:9" s="168" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A50" s="163" t="s">
         <v>233</v>
       </c>
-      <c r="B50" s="94" t="s">
+      <c r="B50" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="88" t="s">
+      <c r="C50" s="165" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="110" t="s">
+      <c r="D50" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="H50" s="96" t="s">
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
+      <c r="H50" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="90"/>
-    </row>
-    <row r="51" spans="1:9" s="89" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A51" s="84" t="s">
+      <c r="I50" s="169"/>
+    </row>
+    <row r="51" spans="1:9" s="168" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A51" s="163" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="110" t="s">
+      <c r="D51" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="H51" s="96" t="s">
+      <c r="E51" s="167"/>
+      <c r="F51" s="167"/>
+      <c r="H51" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="I51" s="90"/>
-    </row>
-    <row r="52" spans="1:9" s="89" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
-      <c r="A52" s="84" t="s">
+      <c r="I51" s="169"/>
+    </row>
+    <row r="52" spans="1:9" s="168" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
+      <c r="A52" s="163" t="s">
         <v>235</v>
       </c>
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="88" t="s">
+      <c r="C52" s="165" t="s">
         <v>182</v>
       </c>
-      <c r="D52" s="110" t="s">
+      <c r="D52" s="166" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="H52" s="96" t="s">
+      <c r="E52" s="167"/>
+      <c r="F52" s="167"/>
+      <c r="H52" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="I52" s="90"/>
-    </row>
-    <row r="53" spans="1:9" s="89" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
-      <c r="A53" s="84" t="s">
+      <c r="I52" s="169"/>
+    </row>
+    <row r="53" spans="1:9" s="168" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
+      <c r="A53" s="163" t="s">
         <v>236</v>
       </c>
-      <c r="B53" s="94" t="s">
+      <c r="B53" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="C53" s="88" t="s">
+      <c r="C53" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="D53" s="110" t="s">
+      <c r="D53" s="166" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="111"/>
-      <c r="F53" s="111"/>
-      <c r="H53" s="96" t="s">
+      <c r="E53" s="167"/>
+      <c r="F53" s="167"/>
+      <c r="H53" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="I53" s="90"/>
-    </row>
-    <row r="54" spans="1:9" s="89" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A54" s="84" t="s">
+      <c r="I53" s="169"/>
+    </row>
+    <row r="54" spans="1:9" s="168" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A54" s="163" t="s">
         <v>237</v>
       </c>
-      <c r="B54" s="94" t="s">
+      <c r="B54" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="88" t="s">
+      <c r="C54" s="165" t="s">
         <v>186</v>
       </c>
-      <c r="D54" s="110" t="s">
+      <c r="D54" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
-      <c r="H54" s="96" t="s">
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="H54" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="I54" s="90"/>
-    </row>
-    <row r="55" spans="1:9" s="89" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A55" s="84" t="s">
+      <c r="I54" s="169"/>
+    </row>
+    <row r="55" spans="1:9" s="168" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A55" s="163" t="s">
         <v>238</v>
       </c>
-      <c r="B55" s="94" t="s">
+      <c r="B55" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="110" t="s">
+      <c r="D55" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
-      <c r="H55" s="96" t="s">
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="H55" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="I55" s="90"/>
-    </row>
-    <row r="56" spans="1:9" s="89" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A56" s="84" t="s">
+      <c r="I55" s="169"/>
+    </row>
+    <row r="56" spans="1:9" s="168" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A56" s="163" t="s">
         <v>239</v>
       </c>
-      <c r="B56" s="94" t="s">
+      <c r="B56" s="164" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="88" t="s">
+      <c r="C56" s="165" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="110" t="s">
+      <c r="D56" s="166" t="s">
         <v>192</v>
       </c>
-      <c r="E56" s="111"/>
-      <c r="F56" s="111"/>
-      <c r="H56" s="96" t="s">
+      <c r="E56" s="167"/>
+      <c r="F56" s="167"/>
+      <c r="H56" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="90"/>
+      <c r="I56" s="169"/>
     </row>
     <row r="57" spans="1:9" s="89" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
-      <c r="A57" s="122" t="s">
+      <c r="A57" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="B57" s="123"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="153"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="121"/>
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A58" s="84" t="s">
@@ -6028,11 +6144,11 @@
       <c r="C58" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="D58" s="110" t="s">
+      <c r="D58" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
       <c r="G58" s="89"/>
       <c r="H58" s="96" t="s">
         <v>33</v>
@@ -6043,190 +6159,190 @@
       <c r="A59" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="B59" s="154" t="s">
+      <c r="B59" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="155" t="s">
+      <c r="C59" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="D59" s="148" t="s">
+      <c r="D59" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="E59" s="148"/>
-      <c r="F59" s="148"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
       <c r="G59" s="89"/>
       <c r="H59" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I59" s="156"/>
+      <c r="I59" s="114"/>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A60" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="B60" s="154" t="s">
+      <c r="B60" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="155" t="s">
+      <c r="C60" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="D60" s="148" t="s">
+      <c r="D60" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="E60" s="148"/>
-      <c r="F60" s="148"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
       <c r="G60" s="89"/>
       <c r="H60" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I60" s="156"/>
+      <c r="I60" s="114"/>
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A61" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="B61" s="154" t="s">
+      <c r="B61" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="155" t="s">
+      <c r="C61" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="D61" s="148" t="s">
+      <c r="D61" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
       <c r="G61" s="89"/>
       <c r="H61" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I61" s="156"/>
+      <c r="I61" s="114"/>
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A62" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="B62" s="154" t="s">
+      <c r="B62" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="C62" s="155" t="s">
+      <c r="C62" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="148" t="s">
+      <c r="D62" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="148"/>
-      <c r="F62" s="148"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
       <c r="G62" s="89"/>
       <c r="H62" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I62" s="156"/>
+      <c r="I62" s="114"/>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A63" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="B63" s="154" t="s">
+      <c r="B63" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="155" t="s">
+      <c r="C63" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="148" t="s">
+      <c r="D63" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="E63" s="148"/>
-      <c r="F63" s="148"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
       <c r="G63" s="89"/>
       <c r="H63" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I63" s="156"/>
+      <c r="I63" s="114"/>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A64" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="B64" s="154" t="s">
+      <c r="B64" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="155" t="s">
+      <c r="C64" s="113" t="s">
         <v>209</v>
       </c>
-      <c r="D64" s="148" t="s">
+      <c r="D64" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="148"/>
-      <c r="F64" s="148"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="118"/>
       <c r="G64" s="89"/>
       <c r="H64" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I64" s="156"/>
+      <c r="I64" s="114"/>
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A65" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="154" t="s">
+      <c r="B65" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="155" t="s">
+      <c r="C65" s="113" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="148" t="s">
+      <c r="D65" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="E65" s="148"/>
-      <c r="F65" s="148"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
       <c r="G65" s="89"/>
       <c r="H65" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I65" s="156"/>
+      <c r="I65" s="114"/>
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A66" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="B66" s="154" t="s">
+      <c r="B66" s="112" t="s">
         <v>214</v>
       </c>
-      <c r="C66" s="155" t="s">
+      <c r="C66" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="D66" s="148" t="s">
+      <c r="D66" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="E66" s="148"/>
-      <c r="F66" s="148"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
       <c r="G66" s="89"/>
       <c r="H66" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="156"/>
+      <c r="I66" s="114"/>
     </row>
     <row r="67" spans="1:9" s="4" customFormat="1" ht="22.5" customHeight="1" outlineLevel="1">
       <c r="A67" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="154" t="s">
+      <c r="B67" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="C67" s="155" t="s">
+      <c r="C67" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="D67" s="148" t="s">
+      <c r="D67" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="E67" s="148"/>
-      <c r="F67" s="148"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
       <c r="G67" s="89"/>
       <c r="H67" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="156"/>
+      <c r="I67" s="114"/>
     </row>
     <row r="68" spans="1:9" s="89" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1"/>
     <row r="69" spans="1:9" s="4" customFormat="1" ht="12.75" customHeight="1"/>
@@ -6305,12 +6421,57 @@
     <row r="130" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="D54:F54"/>
@@ -6327,57 +6488,12 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6394,13 +6510,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="22.86328125" customWidth="1"/>
-    <col min="7" max="7" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.15">
+    <row r="1" spans="1:7" ht="22.5">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -6420,7 +6536,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6430,17 +6546,17 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="104"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -6449,7 +6565,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -6458,7 +6574,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="25.5">
+    <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="19"/>
       <c r="B7" s="53" t="s">
         <v>14</v>
@@ -6479,7 +6595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="65" customFormat="1" ht="13.5">
+    <row r="8" spans="1:7" s="65" customFormat="1" ht="14.25">
       <c r="A8" s="69"/>
       <c r="B8" s="70">
         <v>1</v>
@@ -6505,7 +6621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="19"/>
       <c r="B9" s="32"/>
       <c r="C9" s="31"/>
@@ -6514,7 +6630,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="19"/>
       <c r="B10" s="57"/>
       <c r="C10" s="58" t="s">
@@ -6537,7 +6653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5">
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
@@ -6546,7 +6662,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
@@ -6562,7 +6678,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
